--- a/Views/estadisticas_tbl.xlsx
+++ b/Views/estadisticas_tbl.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">skim_type</t>
   </si>
@@ -71,6 +71,9 @@
     <t xml:space="preserve">JHOGAR</t>
   </si>
   <si>
+    <t xml:space="preserve">mujer</t>
+  </si>
+  <si>
     <t xml:space="preserve">numeric</t>
   </si>
   <si>
@@ -89,7 +92,7 @@
     <t xml:space="preserve">formal</t>
   </si>
   <si>
-    <t xml:space="preserve">▆▁▁▁▇</t>
+    <t xml:space="preserve">▅▁▁▁▇</t>
   </si>
   <si>
     <t xml:space="preserve">hoursWorkUsual</t>
@@ -101,7 +104,7 @@
     <t xml:space="preserve">maxEducLevel</t>
   </si>
   <si>
-    <t xml:space="preserve">▁▁▁▁▇</t>
+    <t xml:space="preserve">▁▁▂▁▇</t>
   </si>
   <si>
     <t xml:space="preserve">ocu</t>
@@ -125,7 +128,7 @@
     <t xml:space="preserve">informal</t>
   </si>
   <si>
-    <t xml:space="preserve">▇▁▁▁▆</t>
+    <t xml:space="preserve">▇▁▁▁▅</t>
   </si>
   <si>
     <t xml:space="preserve">p6050</t>
@@ -149,7 +152,7 @@
     <t xml:space="preserve">sizeFirm</t>
   </si>
   <si>
-    <t xml:space="preserve">▆▅▂▃▇</t>
+    <t xml:space="preserve">▅▃▂▃▇</t>
   </si>
   <si>
     <t xml:space="preserve">wap</t>
@@ -557,10 +560,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -582,53 +585,47 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3" t="n">
-        <v>39.6257242178447</v>
-      </c>
-      <c r="K3" t="n">
-        <v>13.3901111350553</v>
-      </c>
-      <c r="L3" t="n">
-        <v>19</v>
-      </c>
-      <c r="M3" t="n">
-        <v>28</v>
-      </c>
-      <c r="N3" t="n">
-        <v>38</v>
-      </c>
-      <c r="O3" t="n">
-        <v>50</v>
-      </c>
-      <c r="P3" t="n">
-        <v>94</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>21</v>
-      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -642,36 +639,36 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="n">
-        <v>0.309812770628774</v>
+        <v>39.0766129032258</v>
       </c>
       <c r="K4" t="n">
-        <v>0.462430383201087</v>
+        <v>13.1065806455642</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -685,10 +682,10 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5" t="n">
-        <v>0.590107946575593</v>
+        <v>0.298455440131219</v>
       </c>
       <c r="K5" t="n">
-        <v>0.491828537578483</v>
+        <v>0.457596002040128</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -697,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -706,15 +703,15 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -728,42 +725,42 @@
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6" t="n">
-        <v>47.0457400744039</v>
+        <v>0.605795516675779</v>
       </c>
       <c r="K6" t="n">
-        <v>15.4967035956462</v>
+        <v>0.488695846779939</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.999939013234128</v>
+        <v>1</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -771,36 +768,36 @@
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7" t="n">
-        <v>5.94565747743352</v>
+        <v>47.2450792782941</v>
       </c>
       <c r="K7" t="n">
-        <v>1.22927046433969</v>
+        <v>15.0131265229188</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="O7" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="P7" t="n">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -814,36 +811,36 @@
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>5.94594040459267</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1.21273624318973</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -857,36 +854,36 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9" t="n">
-        <v>49.7397084832591</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>28.1124639469053</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -900,36 +897,36 @@
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10" t="n">
-        <v>2.55510154296518</v>
+        <v>50.1713367960634</v>
       </c>
       <c r="K10" t="n">
-        <v>1.01289158502337</v>
+        <v>28.0737206019987</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="P10" t="n">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="Q10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -943,36 +940,36 @@
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" t="n">
-        <v>0.409892053424407</v>
+        <v>2.5247402952433</v>
       </c>
       <c r="K11" t="n">
-        <v>0.491828537578483</v>
+        <v>0.988936268493968</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -986,36 +983,36 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" t="n">
-        <v>2.19137647130573</v>
+        <v>0.394204483324221</v>
       </c>
       <c r="K12" t="n">
-        <v>1.77822378067683</v>
+        <v>0.488695846779939</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1029,10 +1026,10 @@
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13" t="n">
-        <v>2.27145209489541</v>
+        <v>2.18944778567523</v>
       </c>
       <c r="K13" t="n">
-        <v>1.54750676412802</v>
+        <v>1.79376975108388</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -1041,24 +1038,24 @@
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P13" t="n">
         <v>9</v>
       </c>
       <c r="Q13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1072,36 +1069,36 @@
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14" t="n">
-        <v>0.529487101299018</v>
+        <v>2.14454620010935</v>
       </c>
       <c r="K14" t="n">
-        <v>0.499144974378975</v>
+        <v>1.45685647304309</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1115,36 +1112,36 @@
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15" t="n">
-        <v>3.15350368969934</v>
+        <v>0.526038819026791</v>
       </c>
       <c r="K15" t="n">
-        <v>1.65141365682022</v>
+        <v>0.499338583097074</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1158,42 +1155,42 @@
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>3.21480317113177</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.65477695271946</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
       </c>
       <c r="C17" t="n">
-        <v>1765</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.892358358236263</v>
+        <v>1</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -1201,28 +1198,71 @@
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18" t="n">
         <v>1626339.58406713</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K18" t="n">
         <v>2440279.41410928</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L18" t="n">
         <v>84</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M18" t="n">
         <v>800000</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N18" t="n">
         <v>996556.5</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O18" t="n">
         <v>1562500</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>70000000</v>
       </c>
-      <c r="Q17" t="s">
-        <v>48</v>
+      <c r="Q18" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
